--- a/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-unit-exercise-mode</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-unit-exercise-mode</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-unit-exercise-mode</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-unit-exercise-mode</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-unit-exercise-mode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
